--- a/Output/Reach_Information_Data_for_WebMap.xlsx
+++ b/Output/Reach_Information_Data_for_WebMap.xlsx
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">Wildhorse 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Wildhorse Spring Creek</t>
+    <t xml:space="preserve">Wildhorse Spring Creek DS</t>
   </si>
   <si>
     <t xml:space="preserve">Wildhorse 16-2</t>
